--- a/Stocks/NIITTECH.xlsx
+++ b/Stocks/NIITTECH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>464.09999999999997</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>512.35258296126221</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>516.39171698361235</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>24.731586254273331</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>4.6500000000000341</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>12.099999999999966</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.38429752066116091</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>538.8414920744608</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-12.068805717436931</v>
       </c>
       <c r="Y67">
         <v>-6.663323409740185</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>498.85</v>
+      </c>
+      <c r="D83">
+        <v>501.65</v>
+      </c>
+      <c r="E83">
+        <v>485.1</v>
+      </c>
+      <c r="F83">
+        <v>492.5</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>493.08333333333331</v>
+      </c>
+      <c r="H83">
+        <v>493.48159641392454</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>500.65939188359482</v>
+      </c>
+      <c r="K83">
+        <v>485.55050194663357</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>52.132510808519996</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>16.549999999999955</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.44712990936555874</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>492.96515596004679</v>
+      </c>
+      <c r="W83">
+        <v>504.39978922776601</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-11.434633267719221</v>
+      </c>
+      <c r="Y83">
+        <v>-13.811290053159835</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>492.85</v>
+      </c>
+      <c r="D84">
+        <v>500</v>
+      </c>
+      <c r="E84">
+        <v>489.95</v>
+      </c>
+      <c r="F84">
+        <v>498.45</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>496.13333333333338</v>
+      </c>
+      <c r="H84">
+        <v>494.80746487362899</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>500.51286035390706</v>
+      </c>
+      <c r="K84">
+        <v>486.528168180715</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>62.634555951025959</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>10.050000000000011</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.845771144278606</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>493.80897812003957</v>
+      </c>
+      <c r="W84">
+        <v>503.95906409978335</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-10.150085979743778</v>
+      </c>
+      <c r="Y84">
+        <v>-13.079049238476625</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>504.7</v>
+      </c>
+      <c r="D85">
+        <v>509</v>
+      </c>
+      <c r="E85">
+        <v>496.35</v>
+      </c>
+      <c r="F85">
+        <v>508</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>504.45</v>
+      </c>
+      <c r="H85">
+        <v>499.62873243681452</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>502.39889138637216</v>
+      </c>
+      <c r="K85">
+        <v>488.71079747388944</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>74.055006140572246</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>11.649999999999977</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>12.649999999999977</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.92094861660079042</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>495.99221225541811</v>
+      </c>
+      <c r="W85">
+        <v>504.25839268498459</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-8.2661804295664751</v>
+      </c>
+      <c r="Y85">
+        <v>-12.116475476694594</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>506.9</v>
+      </c>
+      <c r="D86">
+        <v>508.8</v>
+      </c>
+      <c r="E86">
+        <v>492.1</v>
+      </c>
+      <c r="F86">
+        <v>497</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>499.3</v>
+      </c>
+      <c r="H86">
+        <v>499.46436621840724</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>503.82135996717835</v>
+      </c>
+      <c r="K86">
+        <v>489.46395359080293</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>51.42492649674849</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.699999999999989</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.29341317365269343</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>496.14725652381532</v>
+      </c>
+      <c r="W86">
+        <v>503.72073396757833</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.5734774437630108</v>
+      </c>
+      <c r="Y86">
+        <v>-11.207875870108278</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>501</v>
+      </c>
+      <c r="D87">
+        <v>514.4</v>
+      </c>
+      <c r="E87">
+        <v>496.3</v>
+      </c>
+      <c r="F87">
+        <v>513.79999999999995</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>508.16666666666669</v>
+      </c>
+      <c r="H87">
+        <v>503.81551644253693</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>506.17216886336092</v>
+      </c>
+      <c r="K87">
+        <v>490.98307501506895</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.322085653925853</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>17.499999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>18.099999999999966</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.96685082872928041</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>498.86306321245911</v>
+      </c>
+      <c r="W87">
+        <v>504.46734626627625</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-5.6042830538171415</v>
+      </c>
+      <c r="Y87">
+        <v>-10.087157306850051</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>518.9</v>
+      </c>
+      <c r="D88">
+        <v>520.25</v>
+      </c>
+      <c r="E88">
+        <v>507.95</v>
+      </c>
+      <c r="F88">
+        <v>512</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>513.4</v>
+      </c>
+      <c r="H88">
+        <v>508.60775822126845</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>509.30057578261403</v>
+      </c>
+      <c r="K88">
+        <v>494.75350278949804</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>66.062239085363032</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.0500000000000114</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>12.300000000000011</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.32926829268292745</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>500.8841304105423</v>
+      </c>
+      <c r="W88">
+        <v>505.02532061692244</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.1411902063801449</v>
+      </c>
+      <c r="Y88">
+        <v>-8.8979638867560702</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>512</v>
+      </c>
+      <c r="D89">
+        <v>519.95000000000005</v>
+      </c>
+      <c r="E89">
+        <v>506.65</v>
+      </c>
+      <c r="F89">
+        <v>515</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>513.86666666666667</v>
+      </c>
+      <c r="H89">
+        <v>511.23721244396756</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>511.66711449758873</v>
+      </c>
+      <c r="K89">
+        <v>497.39716883627625</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>69.090391978870159</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>8.3500000000000227</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>13.300000000000068</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.62781954887217895</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>503.05580265507427</v>
+      </c>
+      <c r="W89">
+        <v>505.76418575640969</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-2.7083831013354143</v>
+      </c>
+      <c r="Y89">
+        <v>-7.6600477296719394</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>515</v>
+      </c>
+      <c r="D90">
+        <v>515.5</v>
+      </c>
+      <c r="E90">
+        <v>509.05</v>
+      </c>
+      <c r="F90">
+        <v>511.25</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>511.93333333333334</v>
+      </c>
+      <c r="H90">
+        <v>511.58527288865048</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>512.5188668314579</v>
+      </c>
+      <c r="K90">
+        <v>499.98668687265933</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>60.636635464960506</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>6.4499999999999886</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.34108527131782829</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>504.31644840044748</v>
+      </c>
+      <c r="W90">
+        <v>506.17054236704598</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-1.8540939665984979</v>
+      </c>
+      <c r="Y90">
+        <v>-6.4988569770572511</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>517</v>
+      </c>
+      <c r="D91">
+        <v>517</v>
+      </c>
+      <c r="E91">
+        <v>502.25</v>
+      </c>
+      <c r="F91">
+        <v>508</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>509.08333333333331</v>
+      </c>
+      <c r="H91">
+        <v>510.33430311099187</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>513.51467420224503</v>
+      </c>
+      <c r="K91">
+        <v>500.4896453454017</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>53.539710648017781</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>14.75</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.38983050847457629</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>504.8831486465325</v>
+      </c>
+      <c r="W91">
+        <v>506.30605774726479</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-1.4229091007322836</v>
+      </c>
+      <c r="Y91">
+        <v>-5.4836674017922578</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>508</v>
+      </c>
+      <c r="D92">
+        <v>508.4</v>
+      </c>
+      <c r="E92">
+        <v>493.15</v>
+      </c>
+      <c r="F92">
+        <v>494.2</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>498.58333333333331</v>
+      </c>
+      <c r="H92">
+        <v>504.45881822216256</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>512.37807993507943</v>
+      </c>
+      <c r="K92">
+        <v>498.85861304642356</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>33.024467436156449</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>15.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>6.8852459016394182E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>503.23958731629671</v>
+      </c>
+      <c r="W92">
+        <v>505.40931272894886</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-2.1697254126521557</v>
+      </c>
+      <c r="Y92">
+        <v>-4.8208790039642375</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>499.9</v>
+      </c>
+      <c r="D93">
+        <v>501.9</v>
+      </c>
+      <c r="E93">
+        <v>490.8</v>
+      </c>
+      <c r="F93">
+        <v>500</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>497.56666666666666</v>
+      </c>
+      <c r="H93">
+        <v>501.01274244441458</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>510.04961772728399</v>
+      </c>
+      <c r="K93">
+        <v>497.06781014721832</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>44.247794578282772</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>11.099999999999966</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.82882882882883036</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>502.74118926763566</v>
+      </c>
+      <c r="W93">
+        <v>505.00862289717486</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-2.2674336295391981</v>
+      </c>
+      <c r="Y93">
+        <v>-4.3101899290792298</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>500</v>
+      </c>
+      <c r="D94">
+        <v>507.9</v>
+      </c>
+      <c r="E94">
+        <v>499.45</v>
+      </c>
+      <c r="F94">
+        <v>505</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>504.11666666666662</v>
+      </c>
+      <c r="H94">
+        <v>502.56470455554063</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>509.57192489899865</v>
+      </c>
+      <c r="K94">
+        <v>497.59718567005871</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>52.775377733976484</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.5500000000000114</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.65680473372781289</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>503.08869861107632</v>
+      </c>
+      <c r="W94">
+        <v>505.00798416405081</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-1.9192855529744861</v>
+      </c>
+      <c r="Y94">
+        <v>-3.8320090538582812</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>508.65</v>
+      </c>
+      <c r="D95">
+        <v>509.3</v>
+      </c>
+      <c r="E95">
+        <v>499.2</v>
+      </c>
+      <c r="F95">
+        <v>501</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>503.16666666666669</v>
+      </c>
+      <c r="H95">
+        <v>502.86568561110369</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>509.51149714366562</v>
+      </c>
+      <c r="K95">
+        <v>497.95336663226789</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>45.774010241025749</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>10.100000000000023</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.17821782178217893</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>502.76736036321842</v>
+      </c>
+      <c r="W95">
+        <v>504.71109644819518</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-1.9437360849767629</v>
+      </c>
+      <c r="Y95">
+        <v>-3.4543544600819773</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>487.95</v>
+      </c>
+      <c r="D96">
+        <v>497.15</v>
+      </c>
+      <c r="E96">
+        <v>486.2</v>
+      </c>
+      <c r="F96">
+        <v>494.9</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>492.75</v>
+      </c>
+      <c r="H96">
+        <v>497.80784280555184</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>506.76449777840656</v>
+      </c>
+      <c r="K96">
+        <v>495.34150738065279</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>36.534744566218706</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>10.949999999999989</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.79452054794520521</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>501.55699723041556</v>
+      </c>
+      <c r="W96">
+        <v>503.98434856314367</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-2.427351332728108</v>
+      </c>
+      <c r="Y96">
+        <v>-3.2489538346112035</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>494.45</v>
+      </c>
+      <c r="D97">
+        <v>504.15</v>
+      </c>
+      <c r="E97">
+        <v>490.3</v>
+      </c>
+      <c r="F97">
+        <v>499</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>497.81666666666666</v>
+      </c>
+      <c r="H97">
+        <v>497.81225473610925</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>506.18349827209397</v>
+      </c>
+      <c r="K97">
+        <v>494.22117240717438</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>45.736855868169222</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>13.849999999999966</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.62815884476534367</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>501.16361304112087</v>
+      </c>
+      <c r="W97">
+        <v>503.61513755846636</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2.45152451734549</v>
+      </c>
+      <c r="Y97">
+        <v>-3.0894679711580606</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>499.9</v>
+      </c>
+      <c r="D98">
+        <v>506.95</v>
+      </c>
+      <c r="E98">
+        <v>499.5</v>
+      </c>
+      <c r="F98">
+        <v>502.9</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>503.11666666666662</v>
+      </c>
+      <c r="H98">
+        <v>500.46446070138791</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>506.35383198940644</v>
+      </c>
+      <c r="K98">
+        <v>495.39424520558009</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>53.7162630845474</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.45637583892617212</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>501.43074949633302</v>
+      </c>
+      <c r="W98">
+        <v>503.56216440598735</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-2.1314149096543247</v>
+      </c>
+      <c r="Y98">
+        <v>-2.8978573588573133</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>502.3</v>
+      </c>
+      <c r="D99">
+        <v>508.7</v>
+      </c>
+      <c r="E99">
+        <v>497.85</v>
+      </c>
+      <c r="F99">
+        <v>506.9</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>504.48333333333329</v>
+      </c>
+      <c r="H99">
+        <v>502.47389701736063</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>506.87520265842721</v>
+      </c>
+      <c r="K99">
+        <v>495.93996849322895</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>61.0578649757622</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>9.0499999999999545</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>10.849999999999966</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.83410138248847765</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>502.2721726507433</v>
+      </c>
+      <c r="W99">
+        <v>503.80941148702533</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-1.5372388362820288</v>
+      </c>
+      <c r="Y99">
+        <v>-2.6257336543422563</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>510</v>
+      </c>
+      <c r="D100">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="E100">
+        <v>507.05</v>
+      </c>
+      <c r="F100">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>525.15</v>
+      </c>
+      <c r="H100">
+        <v>513.8119485086803</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>512.94737984544338</v>
+      </c>
+      <c r="K100">
+        <v>498.40886438362253</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>83.451699869762592</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>27.150000000000034</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>27.150000000000034</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V100">
+        <v>507.18414608909052</v>
+      </c>
+      <c r="W100">
+        <v>506.0605661916901</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>1.1235798974004183</v>
+      </c>
+      <c r="Y100">
+        <v>-1.8758709439937213</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>510.15000000000003</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>517.4</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>520.65</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>523.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>537</v>
+      </c>
+      <c r="D101">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="E101">
+        <v>521</v>
+      </c>
+      <c r="F101">
+        <v>538.75</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>533.65</v>
+      </c>
+      <c r="H101">
+        <v>523.73097425434014</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>519.22573987978933</v>
+      </c>
+      <c r="K101">
+        <v>503.42911674281754</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>85.222131914750662</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>17.75</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>20.200000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.87871287128712672</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>512.04043130615355</v>
+      </c>
+      <c r="W101">
+        <v>508.48200573304638</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>3.5584255731071721</v>
+      </c>
+      <c r="Y101">
+        <v>-0.78901164057354256</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>523.30000000000007</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>528.70000000000005</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>531.1</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>533.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>538.75</v>
+      </c>
+      <c r="D102">
+        <v>544</v>
+      </c>
+      <c r="E102">
+        <v>510.05</v>
+      </c>
+      <c r="F102">
+        <v>516.15</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>523.4</v>
+      </c>
+      <c r="H102">
+        <v>523.56548712717006</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>524.73113101761396</v>
+      </c>
+      <c r="K102">
+        <v>504.90042413330252</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>51.207465817258168</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>6.0999999999999659</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>33.949999999999989</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.17967599410898286</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>512.67267264366842</v>
+      </c>
+      <c r="W102">
+        <v>509.05000530837629</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>3.6226673352921352</v>
+      </c>
+      <c r="Y102">
+        <v>9.332415459959309E-2</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>521</v>
+      </c>
+      <c r="D103">
+        <v>522.95000000000005</v>
+      </c>
+      <c r="E103">
+        <v>498.05</v>
+      </c>
+      <c r="F103">
+        <v>502.2</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>507.73333333333335</v>
+      </c>
+      <c r="H103">
+        <v>515.64941023025176</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>524.33532412481088</v>
+      </c>
+      <c r="K103">
+        <v>503.3781076592353</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>39.150735972227821</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>4.1499999999999773</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>24.900000000000034</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.16666666666666552</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>511.06149223695019</v>
+      </c>
+      <c r="W103">
+        <v>508.54259750775583</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>2.5188947291943578</v>
+      </c>
+      <c r="Y103">
+        <v>0.57843826951854604</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>502.1</v>
+      </c>
+      <c r="D104">
+        <v>530</v>
+      </c>
+      <c r="E104">
+        <v>500.1</v>
+      </c>
+      <c r="F104">
+        <v>524</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>518.0333333333333</v>
+      </c>
+      <c r="H104">
+        <v>516.84137178179253</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>525.59414098596403</v>
+      </c>
+      <c r="K104">
+        <v>502.64963929051635</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>58.320327015103146</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>23.899999999999977</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>29.899999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.79933110367892957</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>513.05203189280405</v>
+      </c>
+      <c r="W104">
+        <v>509.68759028495913</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>3.364441607844924</v>
+      </c>
+      <c r="Y104">
+        <v>1.1356389371838218</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>515.15</v>
+      </c>
+      <c r="D105">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="E105">
+        <v>515.15</v>
+      </c>
+      <c r="F105">
+        <v>523</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>526.2833333333333</v>
+      </c>
+      <c r="H105">
+        <v>521.56235255756292</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J105">
+        <v>528.95099854463865</v>
+      </c>
+      <c r="K105">
+        <v>505.42749722595715</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>57.285528114362684</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>7.8500000000000227</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>25.550000000000068</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.30724070450097857</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>514.58248852468034</v>
+      </c>
+      <c r="W105">
+        <v>510.6736947082955</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>3.9087938163848435</v>
+      </c>
+      <c r="Y105">
+        <v>1.6902699130240262</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>524</v>
+      </c>
+      <c r="D106">
+        <v>568.15</v>
+      </c>
+      <c r="E106">
+        <v>519.04999999999995</v>
+      </c>
+      <c r="F106">
+        <v>544</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>543.73333333333323</v>
+      </c>
+      <c r="H106">
+        <v>532.64784294544802</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>537.66188775694116</v>
+      </c>
+      <c r="K106">
+        <v>508.45472006463331</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N106">
+        <v>70.858548376634275</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>24.950000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>49.100000000000023</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.50814663951120231</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>519.10825952088339</v>
+      </c>
+      <c r="W106">
+        <v>513.14230991508839</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>5.9659496057950037</v>
+      </c>
+      <c r="Y106">
+        <v>2.5454058515782219</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>547.85</v>
+      </c>
+      <c r="D107">
+        <v>554.70000000000005</v>
+      </c>
+      <c r="E107">
+        <v>537</v>
+      </c>
+      <c r="F107">
+        <v>544.20000000000005</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>545.30000000000007</v>
+      </c>
+      <c r="H107">
+        <v>538.97392147272399</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>541.44813492206538</v>
+      </c>
+      <c r="K107">
+        <v>514.79811560582596</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>70.968371443853655</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>7.2000000000000455</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.700000000000045</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.40677966101695068</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>522.96852728690135</v>
+      </c>
+      <c r="W107">
+        <v>515.44287955100776</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>7.5256477358935854</v>
+      </c>
+      <c r="Y107">
+        <v>3.5414542284412946</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
